--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_de_la_Marine_(Miramichi)/Hôpital_de_la_Marine_(Miramichi).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_de_la_Marine_(Miramichi)/Hôpital_de_la_Marine_(Miramichi).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Marine_(Miramichi)</t>
+          <t>Hôpital_de_la_Marine_(Miramichi)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de la Marine (anglais : Seamens' Hospital) est un hôpital situé à Miramichi au Nouveau-Brunswick (Canada), à mi-chemin entre les anciennes villes de Chatham et Newcastle. Il a été construit de 1830 à 1831 dans le but de soigner les marins malades pour le port de Miramichi. Il est resté en service jusqu'en 1921 et a été désigné lieu historique national en 1989 par la Commission des lieux et des monuments historiques du Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Marine_(Miramichi)</t>
+          <t>Hôpital_de_la_Marine_(Miramichi)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de la Marine a été construit de 1830 à 1831 par les commissaires du port de Miramichi et a été financé par les droits de tonnage du port. Il a été en service entre 1831 et 1921, soignant les marins malades ou invalides ayant travaillé dans le commerce du bois de la baie de Miramichi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Marine a été construit de 1830 à 1831 par les commissaires du port de Miramichi et a été financé par les droits de tonnage du port. Il a été en service entre 1831 et 1921, soignant les marins malades ou invalides ayant travaillé dans le commerce du bois de la baie de Miramichi.
 </t>
         </is>
       </c>
